--- a/src/test/resources/TestDataSelenium.xlsx
+++ b/src/test/resources/TestDataSelenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace_seleniumHackathon\Team1_CodeBusters_Phase2_LmsUI\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0C40ED-F138-40AD-9884-447FFE688452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013E051-249A-4D9F-8B5B-BC5D9EAFF934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>UIHackathon@02</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>adjhajf@gmail.com</t>
+  </si>
+  <si>
+    <t>https://lms-frontend-api-hackathon-apr-326235f3973d.herokuapp.com../</t>
   </si>
 </sst>
 </file>
@@ -369,38 +378,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>121423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4FE1FD9B-3C3F-4FD6-A1CA-3DA755B65320}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{A039C75D-B296-49CB-BE1B-29A1BAD27703}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4FE1FD9B-3C3F-4FD6-A1CA-3DA755B65320}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{A039C75D-B296-49CB-BE1B-29A1BAD27703}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{6D76282F-2EE6-42DA-ADF5-FAED7B9F4F16}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{1D6C3F0F-6FD3-4397-8295-CFCD29FCAC62}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{994C7B03-6740-4A3F-9643-0CBA23A9D14F}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{6D6081A6-22C3-455F-BA42-E958702BD2DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestDataSelenium.xlsx
+++ b/src/test/resources/TestDataSelenium.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace_seleniumHackathon\Team1_CodeBusters_Phase2_LmsUI\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Hackathon\Team1_CodeBusters_Phase2-LMS-UI_Hackathon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013E051-249A-4D9F-8B5B-BC5D9EAFF934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5E160B-30C7-4315-AA95-3FB3ECDE9DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>https://lms-frontend-api-hackathon-apr-326235f3973d.herokuapp.com../</t>
+  </si>
+  <si>
+    <t>StudentEmail</t>
+  </si>
+  <si>
+    <t>helo@gmail.com</t>
+  </si>
+  <si>
+    <t>programname</t>
+  </si>
+  <si>
+    <t>batchname</t>
+  </si>
+  <si>
+    <t>TestSH</t>
+  </si>
+  <si>
+    <t>TestbatchSH</t>
   </si>
 </sst>
 </file>
@@ -378,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,9 +407,12 @@
     <col min="1" max="1" width="62.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -401,8 +422,17 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -412,8 +442,17 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -421,12 +460,12 @@
         <v>121423</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -439,6 +478,7 @@
     <hyperlink ref="B3" r:id="rId4" xr:uid="{1D6C3F0F-6FD3-4397-8295-CFCD29FCAC62}"/>
     <hyperlink ref="C4" r:id="rId5" xr:uid="{994C7B03-6740-4A3F-9643-0CBA23A9D14F}"/>
     <hyperlink ref="B5" r:id="rId6" xr:uid="{6D6081A6-22C3-455F-BA42-E958702BD2DA}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{3C39BB8C-7A1A-48FC-99D8-78C598D1B8F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestDataSelenium.xlsx
+++ b/src/test/resources/TestDataSelenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Hackathon\Team1_CodeBusters_Phase2-LMS-UI_Hackathon\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace_seleniumHackathon\Team1_CodeBusters_Phase2_LmsUI\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5E160B-30C7-4315-AA95-3FB3ECDE9DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{AE0C40ED-F138-40AD-9884-447FFE688452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3D0497-B316-41ED-896D-9E4F874327E9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="Batch" sheetId="3" r:id="rId3"/>
     <sheet name="User" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="98">
   <si>
     <t>username</t>
   </si>
@@ -42,38 +53,293 @@
     <t>UIHackathon@02</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>adjhajf@gmail.com</t>
-  </si>
-  <si>
-    <t>https://lms-frontend-api-hackathon-apr-326235f3973d.herokuapp.com../</t>
-  </si>
-  <si>
-    <t>StudentEmail</t>
-  </si>
-  <si>
-    <t>helo@gmail.com</t>
-  </si>
-  <si>
-    <t>programname</t>
-  </si>
-  <si>
-    <t>batchname</t>
-  </si>
-  <si>
-    <t>TestSH</t>
-  </si>
-  <si>
-    <t>TestbatchSH</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EduUg</t>
+  </si>
+  <si>
+    <t>EduPg</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>RoleStatus</t>
+  </si>
+  <si>
+    <t>Visa Status</t>
+  </si>
+  <si>
+    <t>Updated_FirstName</t>
+  </si>
+  <si>
+    <t>Updated_MiddleName</t>
+  </si>
+  <si>
+    <t>Updated_LastName</t>
+  </si>
+  <si>
+    <t>Updated_Location</t>
+  </si>
+  <si>
+    <t>Updated_PhoneNumber</t>
+  </si>
+  <si>
+    <t>Updated_LinkedIn</t>
+  </si>
+  <si>
+    <t>Updated_Email</t>
+  </si>
+  <si>
+    <t>Updated_EduUg</t>
+  </si>
+  <si>
+    <t>Updated_EduPg</t>
+  </si>
+  <si>
+    <t>Updated_TimeZone</t>
+  </si>
+  <si>
+    <t>Updated_Comments</t>
+  </si>
+  <si>
+    <t>Updates_Role</t>
+  </si>
+  <si>
+    <t>Updated_RoleStatus</t>
+  </si>
+  <si>
+    <t>Updated_Visa Status</t>
+  </si>
+  <si>
+    <t>sreevidya</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>www.linkedin.com</t>
+  </si>
+  <si>
+    <t>sree.Team_Admin@gmail.com</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>svidya_Admin</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Malineni</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/sreevidya</t>
+  </si>
+  <si>
+    <t>sreevidya.Team1@gmail.com</t>
+  </si>
+  <si>
+    <t>Btech</t>
+  </si>
+  <si>
+    <t>Mtech</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>H1B</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>sree.Team_Staff@gmail.com</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>svidya_Staff</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>sree.Team_Student@gmail.com</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>svidya_Student</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>Canada-Citizen</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>sree.Team1@gmail.com</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>svidya_Admin_inactive</t>
+  </si>
+  <si>
+    <t>Indian-Citizen</t>
+  </si>
+  <si>
+    <t>Not-Specified</t>
+  </si>
+  <si>
+    <t>svidya_Staff_inactive</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>GC-EAD</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>svidya_Student_inactive</t>
+  </si>
+  <si>
+    <t>H4-EAD</t>
+  </si>
+  <si>
+    <t>svidya_Staff_invalid</t>
+  </si>
+  <si>
+    <t>text.com</t>
+  </si>
+  <si>
+    <t>+1 2345678999</t>
+  </si>
+  <si>
+    <t>Canada-EAD</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>US-Citizen</t>
+  </si>
+  <si>
+    <t>svidya_Student_mandatory</t>
+  </si>
+  <si>
+    <t>######</t>
+  </si>
+  <si>
+    <t>K123</t>
+  </si>
+  <si>
+    <t>svidya_Staff_splchars</t>
+  </si>
+  <si>
+    <t>#####</t>
+  </si>
+  <si>
+    <t>Ma123</t>
+  </si>
+  <si>
+    <t>+1 66666</t>
+  </si>
+  <si>
+    <t>####</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Atlata,GA#22</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>###</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +355,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Courier New"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Courier New"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,10 +396,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -396,89 +684,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>121423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4FE1FD9B-3C3F-4FD6-A1CA-3DA755B65320}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{A039C75D-B296-49CB-BE1B-29A1BAD27703}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{6D76282F-2EE6-42DA-ADF5-FAED7B9F4F16}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{1D6C3F0F-6FD3-4397-8295-CFCD29FCAC62}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{994C7B03-6740-4A3F-9643-0CBA23A9D14F}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{6D6081A6-22C3-455F-BA42-E958702BD2DA}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{3C39BB8C-7A1A-48FC-99D8-78C598D1B8F9}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4FE1FD9B-3C3F-4FD6-A1CA-3DA755B65320}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{A039C75D-B296-49CB-BE1B-29A1BAD27703}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -492,12 +729,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:4">
       <c r="D2" s="1"/>
     </row>
   </sheetData>
@@ -513,7 +750,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -521,12 +758,2659 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDC411-BC57-427D-B704-9C253F81C394}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" customWidth="1"/>
+    <col min="27" max="27" width="19" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>66666</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2">
+        <v>1234567899</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>66666</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3">
+        <v>1234567899</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>66666</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4">
+        <v>1234567899</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>66666</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5">
+        <v>1234567899</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>66666</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6">
+        <v>1234567899</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>66666</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7">
+        <v>1234567899</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>66666</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>66666</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9">
+        <v>1234567899</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>66666</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>66666</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11">
+        <v>1234567899</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>66666</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12">
+        <v>12345678998</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>66666</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13">
+        <v>1234567899</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>66666</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>65</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15">
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15">
+        <v>1234567899</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15">
+      <c r="A16">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>66666</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16">
+        <v>123</v>
+      </c>
+      <c r="P16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16">
+        <v>1234567899</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>66666</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17">
+        <v>1234567899</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V17" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>66666</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18">
+        <v>123</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18">
+        <v>1234567899</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" t="s">
+        <v>52</v>
+      </c>
+      <c r="X18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19">
+        <v>1234567899</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19" t="s">
+        <v>52</v>
+      </c>
+      <c r="X19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20">
+        <v>123</v>
+      </c>
+      <c r="R20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20">
+        <v>1234567899</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" t="s">
+        <v>52</v>
+      </c>
+      <c r="X20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="15">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>1234567895</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>66666</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" t="s">
+        <v>91</v>
+      </c>
+      <c r="S22">
+        <v>1234567899</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" t="s">
+        <v>52</v>
+      </c>
+      <c r="X22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="15">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>66666</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S23">
+        <v>1234567899</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" t="s">
+        <v>52</v>
+      </c>
+      <c r="X23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="15">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24">
+        <v>66666</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24">
+        <v>123</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S24">
+        <v>1234567899</v>
+      </c>
+      <c r="T24" s="2">
+        <v>123</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25">
+        <v>66666</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25">
+        <v>123</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25">
+        <v>1234567899</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V25" t="s">
+        <v>91</v>
+      </c>
+      <c r="W25" t="s">
+        <v>52</v>
+      </c>
+      <c r="X25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>66666</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>47</v>
+      </c>
+      <c r="R26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26">
+        <v>1234567899</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V26">
+        <v>123</v>
+      </c>
+      <c r="W26" t="s">
+        <v>52</v>
+      </c>
+      <c r="X26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="15">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>66666</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>123</v>
+      </c>
+      <c r="L27" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" t="s">
+        <v>48</v>
+      </c>
+      <c r="S27">
+        <v>1234567899</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="15">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>66666</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>47</v>
+      </c>
+      <c r="R28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S28">
+        <v>1234567899</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V28" t="s">
+        <v>51</v>
+      </c>
+      <c r="W28">
+        <v>123</v>
+      </c>
+      <c r="X28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>47</v>
+      </c>
+      <c r="R29" t="s">
+        <v>48</v>
+      </c>
+      <c r="S29">
+        <v>1234567899</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" t="s">
+        <v>51</v>
+      </c>
+      <c r="W29" t="s">
+        <v>52</v>
+      </c>
+      <c r="X29" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15">
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30">
+        <v>1234567899</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W30" t="s">
+        <v>52</v>
+      </c>
+      <c r="X30">
+        <v>123</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15">
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>47</v>
+      </c>
+      <c r="R31" t="s">
+        <v>48</v>
+      </c>
+      <c r="S31">
+        <v>1234567899</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V31" t="s">
+        <v>51</v>
+      </c>
+      <c r="W31" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="15">
+      <c r="O32" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32">
+        <v>1234567899</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V32" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" t="s">
+        <v>52</v>
+      </c>
+      <c r="X32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32">
+        <v>123</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="20:21" ht="15">
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="20:21" ht="15">
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="20:21" ht="15">
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="20:21" ht="15">
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{F27B94F3-D508-4745-A5B6-F3FCDB3A4242}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{C95F6061-C0A9-4324-BE26-67F08E249E55}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{3F36FCF7-215B-4D60-80B7-B810E86AB2E2}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{C88A08AE-D527-4F9F-BDB8-6D4666FDD8BE}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{83BA915E-C609-497E-829C-45392047F15E}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{084E9D02-1687-442C-B484-8A37623589E0}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{66881BC0-4CD1-4CD7-BE4C-D5EF45C58233}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{8B683DDE-5DB7-40F7-ACA5-B4B12EC07B34}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{FFD51B33-32DB-43BB-B59E-C7AED79D52E2}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{B837586D-7C26-40E0-9EF8-B52BB54B6B29}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{2A6D8747-7E72-4365-B7B8-3685E5D8C08C}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{D7FDFFB0-70F6-4CF3-AECC-2CECA92D46A1}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{959B0100-5C32-4C2A-BEF4-EC5BE1CD79C1}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{558BF4E8-A389-4611-8A73-C37C67E4CB98}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{D331F914-87A1-4DC4-84B6-310F36970AD5}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{A4E71A55-C650-4402-A0A8-62AE5FA2BC01}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{B52BAC66-CEC4-4480-BCF4-1F333FBAFCC4}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{835F128D-3A8F-48B9-A34C-B4D167497269}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{41A7FF65-AC51-4E68-AF06-7C6556E60B47}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{9EB60BD3-F063-4D04-9E3B-219C97449F9E}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{A2AAA632-A236-4FAE-B1A3-A5E06BE5A22F}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{C878DD07-BF87-4B3B-BED1-DF6F1B370B5C}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{3AF8A278-0D5C-45B5-9A8C-04D97E91505D}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{84B3AEF2-A949-4D31-9A5B-48753206B69F}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{581E0F44-868F-407D-94C8-EE7748C124C7}"/>
+    <hyperlink ref="G23" r:id="rId26" xr:uid="{2109F5EC-1E7E-4D97-A031-3ABEE7A645CF}"/>
+    <hyperlink ref="F27" r:id="rId27" xr:uid="{BC52879F-66EE-4E4B-B56C-92982C518928}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{130DBA6B-621E-4FFC-92C6-9CA0C7431334}"/>
+    <hyperlink ref="G3" r:id="rId29" xr:uid="{4EF59D00-D12E-4EA7-8271-C16D51A4A1FB}"/>
+    <hyperlink ref="G4" r:id="rId30" xr:uid="{7935BA58-107B-403F-8ADD-14465C94EBB3}"/>
+    <hyperlink ref="T2" r:id="rId31" xr:uid="{76BA08D6-2DD3-48A6-A17C-E18031256132}"/>
+    <hyperlink ref="U2" r:id="rId32" xr:uid="{62B15645-E800-4C2D-A299-DF4AE09C45F7}"/>
+    <hyperlink ref="T3" r:id="rId33" xr:uid="{045071B2-AF62-47F1-B9B8-4601EE3DF5BC}"/>
+    <hyperlink ref="U3" r:id="rId34" xr:uid="{FAE8B588-7253-49A0-AD31-F08650F75173}"/>
+    <hyperlink ref="T4" r:id="rId35" xr:uid="{AAFC3457-EF25-4212-ADE2-4AC516EA4BE2}"/>
+    <hyperlink ref="U4" r:id="rId36" xr:uid="{3E724A7B-4B5D-42C8-A8A4-E8865A17ADFB}"/>
+    <hyperlink ref="T8" r:id="rId37" xr:uid="{FE32739B-59A1-41E4-86B3-D9A888D04BF7}"/>
+    <hyperlink ref="U8" r:id="rId38" xr:uid="{B11C444F-EE76-4E58-9FBF-7D35F93B6695}"/>
+    <hyperlink ref="T9" r:id="rId39" xr:uid="{7B468C85-924E-48D9-9FFC-F144E72144D2}"/>
+    <hyperlink ref="U9" r:id="rId40" xr:uid="{3B9F6A26-D3D4-459C-81B2-850745A57DBD}"/>
+    <hyperlink ref="T10" r:id="rId41" xr:uid="{72971FB2-CCB5-4422-B759-B312503AFBF4}"/>
+    <hyperlink ref="T5" r:id="rId42" xr:uid="{8E89E247-2966-4A55-BE63-41CBB1DF7F2D}"/>
+    <hyperlink ref="U5" r:id="rId43" xr:uid="{70BF8149-E251-49C9-BD0F-3D22A5967EA7}"/>
+    <hyperlink ref="T6" r:id="rId44" xr:uid="{6C83EB09-6FEA-4D75-9F42-54496FEAB460}"/>
+    <hyperlink ref="U6" r:id="rId45" xr:uid="{9AF737B1-5972-4503-8792-160A821C7F84}"/>
+    <hyperlink ref="T7" r:id="rId46" xr:uid="{C2FB483D-FFC8-4A6C-BEE0-215F2ED7BED9}"/>
+    <hyperlink ref="U7" r:id="rId47" xr:uid="{F3829793-7B98-48BF-92E6-DCE13DAD19F1}"/>
+    <hyperlink ref="T11" r:id="rId48" xr:uid="{9DC85F20-9060-4425-B1E7-326F9C8CE4BC}"/>
+    <hyperlink ref="T12" r:id="rId49" xr:uid="{F4800964-31EE-4951-99EA-064C5D076996}"/>
+    <hyperlink ref="U11" r:id="rId50" xr:uid="{56AEB1D5-E6F2-42A2-B630-2C17E48EFA42}"/>
+    <hyperlink ref="U12" r:id="rId51" xr:uid="{ACF1A138-EF72-4CBA-850B-74FD150B798B}"/>
+    <hyperlink ref="U10" r:id="rId52" xr:uid="{46CC337C-206A-4F8A-AACD-EF2CF51098A6}"/>
+    <hyperlink ref="T13" r:id="rId53" xr:uid="{7DC9DA53-9927-4EC8-A5B2-DD899356396B}"/>
+    <hyperlink ref="U13" r:id="rId54" xr:uid="{2E3F2715-4ED9-4F18-A944-92087E25B1DE}"/>
+    <hyperlink ref="T15" r:id="rId55" xr:uid="{F556BE8F-7DD7-4CC1-B10E-96E658F32EB8}"/>
+    <hyperlink ref="U15" r:id="rId56" xr:uid="{69E161A7-ECB5-4C68-B2C5-DB6B7EA39924}"/>
+    <hyperlink ref="T16" r:id="rId57" xr:uid="{4810B936-59EA-4048-9194-415FFD6D0C2D}"/>
+    <hyperlink ref="U16" r:id="rId58" xr:uid="{A9ECC074-0199-46DB-ACB5-6B3126357C2F}"/>
+    <hyperlink ref="T17" r:id="rId59" xr:uid="{D95788C9-F7D2-4440-9BF0-E3040E1B9DA4}"/>
+    <hyperlink ref="U17" r:id="rId60" xr:uid="{B39F9653-6E13-484D-86D7-8669F4E054F1}"/>
+    <hyperlink ref="T18" r:id="rId61" xr:uid="{7EF0C6F2-44E8-4D83-B425-1F0DE600D03A}"/>
+    <hyperlink ref="U18" r:id="rId62" xr:uid="{7D4EE3C1-77CB-4669-BED5-A12960236065}"/>
+    <hyperlink ref="T19" r:id="rId63" xr:uid="{42F6CA45-4DE3-4BE1-9E8E-819039E7CFD3}"/>
+    <hyperlink ref="U19" r:id="rId64" xr:uid="{EFF139EF-8909-41FB-B7F3-E53942E8F335}"/>
+    <hyperlink ref="T20" r:id="rId65" xr:uid="{0DCF8871-F470-4D9A-BDF3-D47D751ED106}"/>
+    <hyperlink ref="U20" r:id="rId66" xr:uid="{B6CE76B2-03B6-4736-9146-D1133DBDF6C8}"/>
+    <hyperlink ref="T21" r:id="rId67" xr:uid="{99C681A3-FDB8-413E-B6E7-8535E427D1E0}"/>
+    <hyperlink ref="U21" r:id="rId68" xr:uid="{042F4A17-24A8-4833-BD4E-EFCB7C855E17}"/>
+    <hyperlink ref="T22" r:id="rId69" xr:uid="{4674C87A-7780-47BD-9348-89CDAAC68E9D}"/>
+    <hyperlink ref="U22" r:id="rId70" xr:uid="{5C06C025-AFEB-449B-BA3D-4552CC8F7C8C}"/>
+    <hyperlink ref="T23" r:id="rId71" xr:uid="{8ACA45F6-247D-4990-953F-7FCBD36C4562}"/>
+    <hyperlink ref="U23" r:id="rId72" xr:uid="{5A759EB1-5EFA-47C6-B907-F4F83D467661}"/>
+    <hyperlink ref="T24" r:id="rId73" xr:uid="{5946E554-71B6-4417-8EF3-92C6F450DEA3}"/>
+    <hyperlink ref="U24" r:id="rId74" xr:uid="{9222C9CC-EF29-4625-B166-5B594234692C}"/>
+    <hyperlink ref="T25" r:id="rId75" xr:uid="{F704123E-CE6F-4ECB-BF34-BF12750912AD}"/>
+    <hyperlink ref="U25" r:id="rId76" xr:uid="{590EBA1C-2CA7-4276-9993-0A126BB717C9}"/>
+    <hyperlink ref="T26" r:id="rId77" xr:uid="{E50847D8-E3A2-479B-BA6B-FF3D1ED577B0}"/>
+    <hyperlink ref="U26" r:id="rId78" xr:uid="{C8DE6F70-9F76-45C1-8AF2-EE3F94F06871}"/>
+    <hyperlink ref="T27" r:id="rId79" xr:uid="{FBE1D4C9-0D8F-4792-9E66-73C3F2A406CC}"/>
+    <hyperlink ref="U27" r:id="rId80" xr:uid="{4D766219-B1CD-48CD-9947-E0F82E5C4AF4}"/>
+    <hyperlink ref="T28" r:id="rId81" xr:uid="{D21051DD-500B-4A55-A97F-EB4F720BC7AB}"/>
+    <hyperlink ref="U28" r:id="rId82" xr:uid="{9098E68C-7D24-4D23-9D08-F71BA95BADB3}"/>
+    <hyperlink ref="T29" r:id="rId83" xr:uid="{B5BB9533-D731-424A-A285-D17888506DF2}"/>
+    <hyperlink ref="U29" r:id="rId84" xr:uid="{79D62020-6F1A-4044-A5C4-EA9AEEBEF8AF}"/>
+    <hyperlink ref="T30" r:id="rId85" xr:uid="{1451625E-F95E-4134-9979-3AE92D046429}"/>
+    <hyperlink ref="U30" r:id="rId86" xr:uid="{9EA78FD7-23BA-4BDC-A50A-FE5BE78CDE09}"/>
+    <hyperlink ref="T31" r:id="rId87" xr:uid="{C9A5E5A6-03CB-4037-ABA4-78F6AADCF384}"/>
+    <hyperlink ref="U31" r:id="rId88" xr:uid="{FFD9C1E9-DCB1-4A45-B20C-0A7851A4505C}"/>
+    <hyperlink ref="T32" r:id="rId89" xr:uid="{5037CF2B-6A41-4A1C-9635-52E8D0FD252A}"/>
+    <hyperlink ref="U32" r:id="rId90" xr:uid="{2CDCD855-F687-468C-ACA2-5FD52DEA75C5}"/>
+    <hyperlink ref="U14" r:id="rId91" xr:uid="{22C113B9-BF00-4598-9963-D8DA96292C95}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestDataSelenium.xlsx
+++ b/src/test/resources/TestDataSelenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace_seleniumHackathon\Team1_CodeBusters_Phase2_LmsUI\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anil.basudkar\eclipse-workspace\Team1_CodeBusters_Phase2-LMS-UI_Hackathon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{AE0C40ED-F138-40AD-9884-447FFE688452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3D0497-B316-41ED-896D-9E4F874327E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D468DC83-96C1-456D-8CF4-207170BCC517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="112">
   <si>
     <t>username</t>
   </si>
@@ -333,13 +333,55 @@
   </si>
   <si>
     <t>###</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>KB100</t>
+  </si>
+  <si>
+    <t>KB101</t>
+  </si>
+  <si>
+    <t>KB102</t>
+  </si>
+  <si>
+    <t>KB103</t>
+  </si>
+  <si>
+    <t>KB104</t>
+  </si>
+  <si>
+    <t>KB105</t>
+  </si>
+  <si>
+    <t>KB106</t>
+  </si>
+  <si>
+    <t>KB107</t>
+  </si>
+  <si>
+    <t>KB108</t>
+  </si>
+  <si>
+    <t>KB109</t>
+  </si>
+  <si>
+    <t>ProgramDescription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,14 +401,20 @@
       <sz val="10"/>
       <color rgb="FF0000C0"/>
       <name val="Courier New"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0066CC"/>
       <name val="Courier New"/>
-      <charset val="1"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -398,11 +446,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,13 +738,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,11 +752,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -723,22 +771,177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42585CB-FB51-491F-9ACD-2587FFF0DBEA}">
-  <dimension ref="D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:4">
-      <c r="D2" s="1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -750,7 +953,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -760,74 +963,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDC411-BC57-427D-B704-9C253F81C394}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="21.81640625" customWidth="1"/>
+    <col min="16" max="16" width="22.453125" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" customWidth="1"/>
+    <col min="19" max="19" width="18.26953125" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.1796875" customWidth="1"/>
+    <col min="23" max="23" width="14.81640625" customWidth="1"/>
+    <col min="24" max="24" width="16.453125" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="O1" t="s">
@@ -873,7 +1076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -889,10 +1092,10 @@
       <c r="E2">
         <v>66666</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H2" t="s">
@@ -931,10 +1134,10 @@
       <c r="S2">
         <v>1234567899</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V2" t="s">
@@ -959,7 +1162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -975,10 +1178,10 @@
       <c r="E3">
         <v>66666</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H3" t="s">
@@ -1017,10 +1220,10 @@
       <c r="S3">
         <v>1234567899</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V3" t="s">
@@ -1045,7 +1248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1061,10 +1264,10 @@
       <c r="E4">
         <v>66666</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H4" t="s">
@@ -1103,10 +1306,10 @@
       <c r="S4">
         <v>1234567899</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V4" t="s">
@@ -1131,7 +1334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1147,10 +1350,10 @@
       <c r="E5">
         <v>66666</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H5" t="s">
@@ -1189,10 +1392,10 @@
       <c r="S5">
         <v>1234567899</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V5" t="s">
@@ -1217,7 +1420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1233,10 +1436,10 @@
       <c r="E6">
         <v>66666</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H6" t="s">
@@ -1275,10 +1478,10 @@
       <c r="S6">
         <v>1234567899</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V6" t="s">
@@ -1303,7 +1506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1319,10 +1522,10 @@
       <c r="E7">
         <v>66666</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H7" t="s">
@@ -1361,10 +1564,10 @@
       <c r="S7">
         <v>1234567899</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V7" t="s">
@@ -1389,7 +1592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1405,10 +1608,10 @@
       <c r="E8">
         <v>66666</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H8" t="s">
@@ -1447,10 +1650,10 @@
       <c r="S8">
         <v>1</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V8" t="s">
@@ -1475,7 +1678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1491,10 +1694,10 @@
       <c r="E9">
         <v>66666</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H9" t="s">
@@ -1533,10 +1736,10 @@
       <c r="S9">
         <v>1234567899</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V9" t="s">
@@ -1561,7 +1764,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1577,10 +1780,10 @@
       <c r="E10">
         <v>66666</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H10" t="s">
@@ -1619,10 +1822,10 @@
       <c r="S10" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V10" t="s">
@@ -1647,7 +1850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1663,10 +1866,10 @@
       <c r="E11">
         <v>66666</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H11" t="s">
@@ -1705,10 +1908,10 @@
       <c r="S11">
         <v>1234567899</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V11" t="s">
@@ -1733,7 +1936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1749,10 +1952,10 @@
       <c r="E12">
         <v>66666</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H12" t="s">
@@ -1791,10 +1994,10 @@
       <c r="S12">
         <v>12345678998</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="U12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V12" t="s">
@@ -1819,7 +2022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1835,10 +2038,10 @@
       <c r="E13">
         <v>66666</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H13" t="s">
@@ -1877,10 +2080,10 @@
       <c r="S13">
         <v>1234567899</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="U13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V13" t="s">
@@ -1896,7 +2099,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1912,10 +2115,10 @@
       <c r="E14">
         <v>66666</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H14" t="s">
@@ -1939,7 +2142,7 @@
       <c r="N14" t="s">
         <v>65</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Z14" t="s">
@@ -1952,7 +2155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="L15" t="s">
         <v>58</v>
       </c>
@@ -1977,10 +2180,10 @@
       <c r="S15">
         <v>1234567899</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="U15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V15" t="s">
@@ -2005,7 +2208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>123</v>
       </c>
@@ -2021,10 +2224,10 @@
       <c r="E16">
         <v>66666</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H16" t="s">
@@ -2063,10 +2266,10 @@
       <c r="S16">
         <v>1234567899</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V16" t="s">
@@ -2091,7 +2294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2107,10 +2310,10 @@
       <c r="E17">
         <v>66666</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H17" t="s">
@@ -2149,10 +2352,10 @@
       <c r="S17">
         <v>1234567899</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V17" t="s">
@@ -2177,7 +2380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2193,10 +2396,10 @@
       <c r="E18">
         <v>66666</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H18" t="s">
@@ -2235,10 +2438,10 @@
       <c r="S18">
         <v>1234567899</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V18" t="s">
@@ -2263,7 +2466,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2279,10 +2482,10 @@
       <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H19" t="s">
@@ -2321,10 +2524,10 @@
       <c r="S19">
         <v>1234567899</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V19" t="s">
@@ -2349,7 +2552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2365,10 +2568,10 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H20" t="s">
@@ -2407,10 +2610,10 @@
       <c r="S20">
         <v>1234567899</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V20" t="s">
@@ -2435,7 +2638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2451,10 +2654,10 @@
       <c r="E21">
         <v>1234567895</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H21" t="s">
@@ -2493,10 +2696,10 @@
       <c r="S21" t="s">
         <v>91</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V21" t="s">
@@ -2521,7 +2724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2537,10 +2740,10 @@
       <c r="E22">
         <v>66666</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H22" t="s">
@@ -2579,10 +2782,10 @@
       <c r="S22">
         <v>1234567899</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V22" t="s">
@@ -2607,7 +2810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -2623,10 +2826,10 @@
       <c r="E23">
         <v>66666</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H23" t="s">
@@ -2665,10 +2868,10 @@
       <c r="S23">
         <v>1234567899</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="U23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V23" t="s">
@@ -2693,7 +2896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2709,10 +2912,10 @@
       <c r="E24">
         <v>66666</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H24">
@@ -2751,10 +2954,10 @@
       <c r="S24">
         <v>1234567899</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="1">
         <v>123</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V24" t="s">
@@ -2779,7 +2982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2795,10 +2998,10 @@
       <c r="E25">
         <v>66666</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H25" t="s">
@@ -2837,10 +3040,10 @@
       <c r="S25">
         <v>1234567899</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="U25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V25" t="s">
@@ -2865,7 +3068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2881,10 +3084,10 @@
       <c r="E26">
         <v>66666</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H26" t="s">
@@ -2923,10 +3126,10 @@
       <c r="S26">
         <v>1234567899</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V26">
@@ -2951,7 +3154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2967,10 +3170,10 @@
       <c r="E27">
         <v>66666</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H27" t="s">
@@ -3009,10 +3212,10 @@
       <c r="S27">
         <v>1234567899</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="T27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="U27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V27" t="s">
@@ -3037,7 +3240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3053,10 +3256,10 @@
       <c r="E28">
         <v>66666</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H28" t="s">
@@ -3095,10 +3298,10 @@
       <c r="S28">
         <v>1234567899</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="U28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V28" t="s">
@@ -3123,9 +3326,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15">
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="O29" t="s">
         <v>87</v>
       </c>
@@ -3141,10 +3344,10 @@
       <c r="S29">
         <v>1234567899</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V29" t="s">
@@ -3169,7 +3372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O30" t="s">
         <v>87</v>
       </c>
@@ -3185,10 +3388,10 @@
       <c r="S30">
         <v>1234567899</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="T30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="U30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V30" t="s">
@@ -3213,7 +3416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O31" t="s">
         <v>87</v>
       </c>
@@ -3229,10 +3432,10 @@
       <c r="S31">
         <v>1234567899</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="U31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V31" t="s">
@@ -3257,7 +3460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="O32" t="s">
         <v>87</v>
       </c>
@@ -3273,10 +3476,10 @@
       <c r="S32">
         <v>1234567899</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V32" t="s">
@@ -3301,21 +3504,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="20:21" ht="15">
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="20:21" ht="15">
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="20:21" ht="15">
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="20:21" ht="15">
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+    <row r="33" spans="20:21" x14ac:dyDescent="0.35">
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="20:21" x14ac:dyDescent="0.35">
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="20:21" x14ac:dyDescent="0.35">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="20:21" x14ac:dyDescent="0.35">
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3391,7 +3594,7 @@
     <hyperlink ref="U22" r:id="rId70" xr:uid="{5C06C025-AFEB-449B-BA3D-4552CC8F7C8C}"/>
     <hyperlink ref="T23" r:id="rId71" xr:uid="{8ACA45F6-247D-4990-953F-7FCBD36C4562}"/>
     <hyperlink ref="U23" r:id="rId72" xr:uid="{5A759EB1-5EFA-47C6-B907-F4F83D467661}"/>
-    <hyperlink ref="T24" r:id="rId73" xr:uid="{5946E554-71B6-4417-8EF3-92C6F450DEA3}"/>
+    <hyperlink ref="T24" r:id="rId73" display="http://www.linkedin.com/sreevidya" xr:uid="{5946E554-71B6-4417-8EF3-92C6F450DEA3}"/>
     <hyperlink ref="U24" r:id="rId74" xr:uid="{9222C9CC-EF29-4625-B166-5B594234692C}"/>
     <hyperlink ref="T25" r:id="rId75" xr:uid="{F704123E-CE6F-4ECB-BF34-BF12750912AD}"/>
     <hyperlink ref="U25" r:id="rId76" xr:uid="{590EBA1C-2CA7-4276-9993-0A126BB717C9}"/>
@@ -3413,4 +3616,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d9290083-bd2f-48a2-8ac5-09a524b17d15}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>